--- a/public/ExcelTemplates/SalesReportNew.xlsx
+++ b/public/ExcelTemplates/SalesReportNew.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmoud.fayez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfayez/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078A84E3-6918-4090-AB2C-93970411901D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8148B6-8300-9A40-B583-3F858DB2869C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="2080" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="المبيعات" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="الاجمالي">المبيعات!$G$4:$G$20</definedName>
+    <definedName name="الاجمالي">المبيعات!$H$4:$H$20</definedName>
     <definedName name="الشهر">المبيعات!$C$4:$C$20</definedName>
     <definedName name="الشهر_2">#REF!</definedName>
     <definedName name="الكود_2">#REF!</definedName>
-    <definedName name="بيان">المبيعات!$F$4:$F$20</definedName>
+    <definedName name="بيان">المبيعات!$G$4:$G$20</definedName>
     <definedName name="ض0م">المبيعات!#REF!</definedName>
-    <definedName name="قيمة_علف_بادى">المبيعات!$K$4:$K$20</definedName>
+    <definedName name="قيمة_علف_بادى">المبيعات!$L$4:$L$20</definedName>
     <definedName name="قيمة11_علف_مخصوص">المبيعات!#REF!</definedName>
     <definedName name="قيمة11_علف_مزارع">المبيعات!#REF!</definedName>
     <definedName name="قيمة14_علف_أمهات">المبيعات!#REF!</definedName>
@@ -45,7 +45,7 @@
     <definedName name="قيمة56_معدات">المبيعات!#REF!</definedName>
     <definedName name="قيمة59_ادويه">المبيعات!#REF!</definedName>
     <definedName name="قيمة8_مركزات_تسمين">المبيعات!#REF!</definedName>
-    <definedName name="كميه_علف_بادى">المبيعات!$L$4:$L$20</definedName>
+    <definedName name="كميه_علف_بادى">المبيعات!$M$4:$M$20</definedName>
     <definedName name="كميه12_علف_مخصوص">المبيعات!#REF!</definedName>
     <definedName name="كميه12_علف_مزارع">المبيعات!#REF!</definedName>
     <definedName name="كميه15_علف_أمهات">المبيعات!#REF!</definedName>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>م</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>القيمة</t>
+  </si>
+  <si>
+    <t>رقم تسجيل العميل</t>
   </si>
 </sst>
 </file>
@@ -794,137 +797,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW20"/>
+  <dimension ref="A1:AX20"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU1" sqref="AU1:AW1"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="4"/>
-    <col min="12" max="13" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="4"/>
-    <col min="15" max="16" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="4"/>
-    <col min="18" max="19" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.1796875" style="4"/>
-    <col min="21" max="22" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1796875" style="4"/>
-    <col min="24" max="25" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.1796875" style="4"/>
-    <col min="27" max="28" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.1796875" style="4"/>
-    <col min="30" max="31" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.1796875" style="4"/>
-    <col min="33" max="34" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.1796875" style="4"/>
-    <col min="36" max="37" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.1796875" style="4"/>
+    <col min="5" max="5" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="4"/>
+    <col min="13" max="14" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="4"/>
+    <col min="16" max="17" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" style="4"/>
+    <col min="19" max="20" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.1640625" style="4"/>
+    <col min="22" max="23" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.1640625" style="4"/>
+    <col min="25" max="26" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.1640625" style="4"/>
+    <col min="28" max="29" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.1640625" style="4"/>
+    <col min="31" max="32" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.1640625" style="4"/>
+    <col min="34" max="35" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.1640625" style="4"/>
+    <col min="37" max="38" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="22"/>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="22"/>
     </row>
-    <row r="2" spans="1:49" ht="13" x14ac:dyDescent="0.25">
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="25"/>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="L2" s="23"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="25"/>
     </row>
-    <row r="3" spans="1:49" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -940,1005 +943,1025 @@
       <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="T3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="U3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="X3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Z3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="AA3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="AC3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AF3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AG3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AI3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AJ3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="AL3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="10" t="s">
+      <c r="AM3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AN3" s="11" t="s">
+      <c r="AO3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="10" t="s">
+      <c r="AP3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AQ3" s="11" t="s">
+      <c r="AR3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AR3" s="10" t="s">
+      <c r="AS3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AT3" s="11" t="s">
+      <c r="AU3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AU3" s="10" t="s">
+      <c r="AV3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AW3" s="11" t="s">
+      <c r="AX3" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="13"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="13"/>
     </row>
-    <row r="5" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="13"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="13"/>
     </row>
-    <row r="6" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="13"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="13"/>
     </row>
-    <row r="7" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="12"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="13"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="13"/>
     </row>
-    <row r="8" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="5"/>
-      <c r="AW8" s="13"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="13"/>
     </row>
-    <row r="9" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="5"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="12"/>
-      <c r="AV9" s="5"/>
-      <c r="AW9" s="13"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="13"/>
     </row>
-    <row r="10" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="12"/>
-      <c r="AV10" s="5"/>
-      <c r="AW10" s="13"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="13"/>
     </row>
-    <row r="11" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="12"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="13"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="13"/>
     </row>
-    <row r="12" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="12"/>
-      <c r="AV12" s="5"/>
-      <c r="AW12" s="13"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="13"/>
     </row>
-    <row r="13" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="5"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="12"/>
-      <c r="AV13" s="5"/>
-      <c r="AW13" s="13"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="13"/>
     </row>
-    <row r="14" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="12"/>
-      <c r="AV14" s="5"/>
-      <c r="AW14" s="13"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="13"/>
     </row>
-    <row r="15" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="5"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="12"/>
-      <c r="AV15" s="5"/>
-      <c r="AW15" s="13"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="13"/>
     </row>
-    <row r="16" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="5"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="12"/>
-      <c r="AV16" s="5"/>
-      <c r="AW16" s="13"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="13"/>
     </row>
-    <row r="17" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="13"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="5"/>
-      <c r="AT17" s="13"/>
-      <c r="AU17" s="12"/>
-      <c r="AV17" s="5"/>
-      <c r="AW17" s="13"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="13"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="13"/>
     </row>
-    <row r="18" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="12"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="12"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="12"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="12"/>
-      <c r="AS18" s="5"/>
-      <c r="AT18" s="13"/>
-      <c r="AU18" s="12"/>
-      <c r="AV18" s="5"/>
-      <c r="AW18" s="13"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="13"/>
     </row>
-    <row r="19" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="12"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="12"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="12"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="12"/>
-      <c r="AS19" s="5"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="12"/>
-      <c r="AV19" s="5"/>
-      <c r="AW19" s="13"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="13"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="13"/>
     </row>
-    <row r="20" spans="1:49" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="15"/>
-      <c r="AN20" s="16"/>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="15"/>
-      <c r="AQ20" s="16"/>
-      <c r="AR20" s="14"/>
-      <c r="AS20" s="15"/>
-      <c r="AT20" s="16"/>
-      <c r="AU20" s="14"/>
-      <c r="AV20" s="15"/>
-      <c r="AW20" s="16"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="16"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="14"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="16"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/public/ExcelTemplates/SalesReportNew.xlsx
+++ b/public/ExcelTemplates/SalesReportNew.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfayez/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmoud.fayez\Documents\SalesReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8148B6-8300-9A40-B583-3F858DB2869C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550B9098-93B1-4FF4-8D7D-86B9A5ACA397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="2080" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="المبيعات" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="الاجمالي">المبيعات!$H$4:$H$20</definedName>
+    <definedName name="الاجمالي">المبيعات!$I$4:$I$20</definedName>
     <definedName name="الشهر">المبيعات!$C$4:$C$20</definedName>
     <definedName name="الشهر_2">#REF!</definedName>
     <definedName name="الكود_2">#REF!</definedName>
-    <definedName name="بيان">المبيعات!$G$4:$G$20</definedName>
+    <definedName name="بيان">المبيعات!$H$4:$H$20</definedName>
     <definedName name="ض0م">المبيعات!#REF!</definedName>
-    <definedName name="قيمة_علف_بادى">المبيعات!$L$4:$L$20</definedName>
+    <definedName name="قيمة_علف_بادى">المبيعات!$M$4:$M$20</definedName>
     <definedName name="قيمة11_علف_مخصوص">المبيعات!#REF!</definedName>
     <definedName name="قيمة11_علف_مزارع">المبيعات!#REF!</definedName>
     <definedName name="قيمة14_علف_أمهات">المبيعات!#REF!</definedName>
@@ -45,7 +45,7 @@
     <definedName name="قيمة56_معدات">المبيعات!#REF!</definedName>
     <definedName name="قيمة59_ادويه">المبيعات!#REF!</definedName>
     <definedName name="قيمة8_مركزات_تسمين">المبيعات!#REF!</definedName>
-    <definedName name="كميه_علف_بادى">المبيعات!$M$4:$M$20</definedName>
+    <definedName name="كميه_علف_بادى">المبيعات!$N$4:$N$20</definedName>
     <definedName name="كميه12_علف_مخصوص">المبيعات!#REF!</definedName>
     <definedName name="كميه12_علف_مزارع">المبيعات!#REF!</definedName>
     <definedName name="كميه15_علف_أمهات">المبيعات!#REF!</definedName>
@@ -68,7 +68,7 @@
     <definedName name="كميه6_علف_ناهى">المبيعات!#REF!</definedName>
     <definedName name="كميه60_ادويه">المبيعات!#REF!</definedName>
     <definedName name="كميه9_مركزات_تسمين">المبيعات!#REF!</definedName>
-    <definedName name="كود">المبيعات!$E$4:$E$20</definedName>
+    <definedName name="كود">المبيعات!$F$4:$F$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +79,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -87,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
   <si>
     <t>م</t>
   </si>
@@ -129,6 +128,9 @@
   </si>
   <si>
     <t>رقم تسجيل العميل</t>
+  </si>
+  <si>
+    <t>الفرع</t>
   </si>
 </sst>
 </file>
@@ -797,137 +799,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX20"/>
+  <dimension ref="A1:AY20"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="4"/>
-    <col min="13" max="14" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" style="4"/>
-    <col min="16" max="17" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" style="4"/>
-    <col min="19" max="20" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.1640625" style="4"/>
-    <col min="22" max="23" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.1640625" style="4"/>
-    <col min="25" max="26" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.1640625" style="4"/>
-    <col min="28" max="29" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.1640625" style="4"/>
-    <col min="31" max="32" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.1640625" style="4"/>
-    <col min="34" max="35" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.1640625" style="4"/>
-    <col min="37" max="38" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.1640625" style="4"/>
+    <col min="5" max="5" width="9" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="4"/>
+    <col min="14" max="15" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="4"/>
+    <col min="17" max="18" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="4"/>
+    <col min="20" max="21" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="4"/>
+    <col min="23" max="24" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="4"/>
+    <col min="26" max="27" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="4"/>
+    <col min="29" max="30" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="4"/>
+    <col min="32" max="33" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" style="4"/>
+    <col min="35" max="36" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="4"/>
+    <col min="38" max="39" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="22"/>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="22"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="25"/>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="M2" s="23"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="25"/>
     </row>
-    <row r="3" spans="1:50" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:51" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -941,1027 +944,1047 @@
         <v>3</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="U3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="Y3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="AA3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AB3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AD3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AE3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AG3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AH3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AI3" s="11" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AK3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AM3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AM3" s="10" t="s">
+      <c r="AN3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AO3" s="11" t="s">
+      <c r="AP3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AP3" s="10" t="s">
+      <c r="AQ3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AR3" s="11" t="s">
+      <c r="AS3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AS3" s="10" t="s">
+      <c r="AT3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AV3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AV3" s="10" t="s">
+      <c r="AW3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AX3" s="11" t="s">
+      <c r="AY3" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="13"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="13"/>
     </row>
-    <row r="5" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="13"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="13"/>
     </row>
-    <row r="6" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="13"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="13"/>
     </row>
-    <row r="7" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="12"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="13"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="13"/>
     </row>
-    <row r="8" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="13"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="13"/>
     </row>
-    <row r="9" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="12"/>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="12"/>
-      <c r="AW9" s="5"/>
-      <c r="AX9" s="13"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="13"/>
     </row>
-    <row r="10" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="12"/>
-      <c r="AT10" s="5"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="12"/>
-      <c r="AW10" s="5"/>
-      <c r="AX10" s="13"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="13"/>
     </row>
-    <row r="11" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="12"/>
-      <c r="AW11" s="5"/>
-      <c r="AX11" s="13"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="13"/>
     </row>
-    <row r="12" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="12"/>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="13"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="13"/>
     </row>
-    <row r="13" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="12"/>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="13"/>
-      <c r="AV13" s="12"/>
-      <c r="AW13" s="5"/>
-      <c r="AX13" s="13"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="13"/>
     </row>
-    <row r="14" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="12"/>
-      <c r="AT14" s="5"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="12"/>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="13"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="13"/>
     </row>
-    <row r="15" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="5"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="12"/>
-      <c r="AW15" s="5"/>
-      <c r="AX15" s="13"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="13"/>
     </row>
-    <row r="16" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="5"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="12"/>
-      <c r="AW16" s="5"/>
-      <c r="AX16" s="13"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="13"/>
     </row>
-    <row r="17" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="13"/>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="12"/>
-      <c r="AT17" s="5"/>
-      <c r="AU17" s="13"/>
-      <c r="AV17" s="12"/>
-      <c r="AW17" s="5"/>
-      <c r="AX17" s="13"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="13"/>
     </row>
-    <row r="18" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="12"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="12"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="12"/>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="12"/>
-      <c r="AT18" s="5"/>
-      <c r="AU18" s="13"/>
-      <c r="AV18" s="12"/>
-      <c r="AW18" s="5"/>
-      <c r="AX18" s="13"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="13"/>
     </row>
-    <row r="19" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="12"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="12"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="12"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="12"/>
-      <c r="AT19" s="5"/>
-      <c r="AU19" s="13"/>
-      <c r="AV19" s="12"/>
-      <c r="AW19" s="5"/>
-      <c r="AX19" s="13"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="13"/>
     </row>
-    <row r="20" spans="1:50" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:51" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="15"/>
-      <c r="AO20" s="16"/>
-      <c r="AP20" s="14"/>
-      <c r="AQ20" s="15"/>
-      <c r="AR20" s="16"/>
-      <c r="AS20" s="14"/>
-      <c r="AT20" s="15"/>
-      <c r="AU20" s="16"/>
-      <c r="AV20" s="14"/>
-      <c r="AW20" s="15"/>
-      <c r="AX20" s="16"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="16"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="16"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="16"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
